--- a/districts/Tamilnadu.xlsx
+++ b/districts/Tamilnadu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gingee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuddalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panruti</t>
   </si>
 </sst>
 </file>
@@ -129,12 +135,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,13 +165,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -192,23 +202,37 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>604202</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>607106</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/districts/Tamilnadu.xlsx
+++ b/districts/Tamilnadu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="484">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -752,6 +752,726 @@
   </si>
   <si>
     <t xml:space="preserve">Mukhasaparur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mullangudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murugangudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muttam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Naraiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.Moolakuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadukkuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naduveerappattu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagarapadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakkaravanthankudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nallathur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nallur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandesswaramangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nangudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanjalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanjamahathuvazkai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathapattu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nattarmangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nellikkuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nellikkuppam East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nellikuppam Bazaar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyvasal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli General Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli Ii Thermal Station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli Second Mines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neyveli Thermal Bus Stand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nithinatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odakkanallur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odappankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omampuliyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oomangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oraiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orangur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orathur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottimedu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachayankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padirikuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagandai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palayamkottai Melpathy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palayamkottai(CDL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palayapattinam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallavarayanatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panikuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pannapattu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panruti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panruti Bazaar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panruti East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panruti West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parangipettai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paravalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelandurai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennadam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perambalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perampattu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periyakappankulam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periyakomatti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periyakottumulai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periyakuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periyanellikkollai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periyanesalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perperiyankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perumalnaickenpalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perumulai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perungalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pethanaickenkuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pichavaram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillaiyarthangal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinnalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinnathur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponnanthittu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poochimedu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poolambadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poondi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poondiyankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poovanikkuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothiramangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poynapadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pudaiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puduchatram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pudupalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulamedu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulavanur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puliyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puthupet (CDL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puvalai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puvanur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pythambadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajendra Cholagam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajendra Pattinam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramapuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reddichavadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reddiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettakurichi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakkangudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salianthoppu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samattikuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samiyarpettai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangolikuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathamangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathanatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathapadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathipattu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathiyam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathiyavadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathukudal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedapalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seemanthottam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sellankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semmandalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semmedu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semokottai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seplanatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seppakkam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serakuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sethiathope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sevveri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shandan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sholathiram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sholavalli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silambimangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silambinathanpettai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singirikoil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sipcot Cuddalore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirugramam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirukattur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirumangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirumulai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirupakkam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siruthondamadevi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siruvathur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sithamalli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sivapuri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Bazaar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sornavur Melpathi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Adivaraganallur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Pudur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Vakkaramari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srimushnam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinedunjeri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suba Uppalavadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subramaniyapuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundaravandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suravilandur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T   Gopurapuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.Nedunjeri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T.Palayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temmur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terkuviruthangam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thachur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thandavankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thatchakadu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thattampalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theerthanagiri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theethampalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therku Vadakku Puthur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thillaividangan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiyagavalli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thokkanambakkam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thondamanatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thoravalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thottikuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirukandeeswaram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirumanikuzhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirunaraiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirupadiripuliyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruppadiripuliyur Bazaar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruppadiripuliyur West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruthuraiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruvamur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruvatigai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruvattathurai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruvendhipuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tittagudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toludur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U  Agaram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udayargudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uthamacholamangalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttangal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadakkumangudi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadakkupalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadakkuvelur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadakuthu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadathalaikulam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagaiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaithianathapuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vakkur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valakollai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valasakkadu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valayamadevi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valisodanaipalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallampadugai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallimaduram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valudalampattu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanamadevi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanathirayapuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandipalayam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vannaiyur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanpakkam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varakalpattu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varambanur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varinjipakkam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasanankuppam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasantharayanpalayam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vattathur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vayalur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veeramudayanatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veeranandapuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veerraperumanallur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehakollai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vellakarai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vellapakkam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venganur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkatampettai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venugopalapuram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veppur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijayamanagaram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilagam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilangattur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villiyanallur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilvarayanatham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virupakshi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visoor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vriddhachalam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vriddhachalam Bazaar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vriddhachalam Cutchery </t>
   </si>
 </sst>
 </file>
@@ -761,7 +1481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -790,12 +1510,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,7 +1554,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -854,10 +1568,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,13 +1588,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E243" activeCellId="0" sqref="E243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
@@ -2131,7 +2841,7 @@
       <c r="B89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="2" t="n">
@@ -4281,71 +4991,3422 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
+      <c r="A243" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>608302</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
+      <c r="A244" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>606105</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
+      <c r="A245" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>608306</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
+      <c r="A246" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>606304</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
+      <c r="A247" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>607102</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
+      <c r="A248" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>607103</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
+      <c r="A249" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>607102</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
+      <c r="A250" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>606302</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
+      <c r="A251" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>608703</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
+      <c r="A252" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>608002</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-    </row>
+      <c r="A253" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>605106</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>608702</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>608702</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>608302</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>608102</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>607101</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>607109</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>608301</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>608303</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>607801</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>607802</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>607803</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>607803</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>607807</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>607802</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>607807</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>608201</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>607805</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>608306</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>607804</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>607108</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>606108</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>608201</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>606103</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>607401</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>607112</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>606104</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>607102</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>607102</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>608201</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>608201</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>608502</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>606105</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>606111</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>606105</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>608002</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>607802</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>608501</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>606103</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>608801</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>608704</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>607805</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>607104</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>606106</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>608305</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>607302</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>608002</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>608303</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>608704</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>608102</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>608102</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>608801</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>607005</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>608801</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>606111</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>608501</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>607001</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>608302</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>607205</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>607108</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>608601</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>606104</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>607101</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>608301</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>607402</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>608304</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>608201</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>608401</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>608502</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>607005</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>606111</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>607004</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>608601</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>606103</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>606110</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>606110</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>607001</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>607802</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>607303</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>608702</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>606106</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>608304</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D376" s="2" t="n">
+        <v>608801</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D377" s="2" t="n">
+        <v>607102</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D378" s="2" t="n">
+        <v>605007</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D379" s="2" t="n">
+        <v>607005</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D380" s="2" t="n">
+        <v>607101</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D381" s="2" t="n">
+        <v>608304</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D382" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D383" s="2" t="n">
+        <v>606106</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D384" s="2" t="n">
+        <v>606123</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>607103</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D387" s="2" t="n">
+        <v>608301</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D388" s="2" t="n">
+        <v>608002</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>608502</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D390" s="2" t="n">
+        <v>607104</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D391" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D394" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D395" s="2" t="n">
+        <v>608703</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>607002</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D397" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>607401</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D399" s="2" t="n">
+        <v>608302</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D401" s="2" t="n">
+        <v>608305</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D402" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D403" s="2" t="n">
+        <v>608302</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>608305</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>606303</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>607802</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>608501</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D408" s="2" t="n">
+        <v>607205</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>608801</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>608501</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D411" s="2" t="n">
+        <v>606110</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>608102</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>608801</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>607402</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D418" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>607401</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D420" s="2" t="n">
+        <v>608303</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D421" s="2" t="n">
+        <v>607002</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D422" s="2" t="n">
+        <v>607002</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>607002</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D424" s="2" t="n">
+        <v>607205</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D425" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>607106</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>606111</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D428" s="2" t="n">
+        <v>607401</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D429" s="2" t="n">
+        <v>606106</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>606111</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D431" s="2" t="n">
+        <v>606303</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D432" s="2" t="n">
+        <v>607804</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D433" s="2" t="n">
+        <v>608301</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D434" s="2" t="n">
+        <v>608002</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>607804</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D436" s="2" t="n">
+        <v>608401</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D437" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D438" s="2" t="n">
+        <v>607802</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D439" s="2" t="n">
+        <v>607303</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D440" s="2" t="n">
+        <v>607303</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D441" s="2" t="n">
+        <v>608704</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D442" s="2" t="n">
+        <v>606106</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D443" s="2" t="n">
+        <v>606303</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D444" s="2" t="n">
+        <v>608401</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D445" s="2" t="n">
+        <v>608201</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D446" s="2" t="n">
+        <v>608702</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D447" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D448" s="2" t="n">
+        <v>608704</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D449" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D450" s="2" t="n">
+        <v>607805</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D451" s="2" t="n">
+        <v>608401</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>606108</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>608701</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>607303</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D457" s="2" t="n">
+        <v>607004</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D458" s="2" t="n">
+        <v>608302</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>607105</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>607109</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>607205</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="D463" s="2" t="n">
+        <v>607301</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D464" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D465" s="2" t="n">
+        <v>608702</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D466" s="2" t="n">
+        <v>608602</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D467" s="2" t="n">
+        <v>608702</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D468" s="2" t="n">
+        <v>608301</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D469" s="2" t="n">
+        <v>607101</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D470" s="2" t="n">
+        <v>607302</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D471" s="2" t="n">
+        <v>607003</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D472" s="2" t="n">
+        <v>607109</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D473" s="2" t="n">
+        <v>606303</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="D474" s="2" t="n">
+        <v>607302</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D475" s="2" t="n">
+        <v>607001</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>606304</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D477" s="2" t="n">
+        <v>606104</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D478" s="2" t="n">
+        <v>608305</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D479" s="2" t="n">
+        <v>606302</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>608501</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D481" s="2" t="n">
+        <v>607001</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>607302</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D483" s="2" t="n">
+        <v>607805</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D484" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D485" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D486" s="2" t="n">
+        <v>606001</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/districts/Tamilnadu.xlsx
+++ b/districts/Tamilnadu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="116">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -47,6 +47,327 @@
   </si>
   <si>
     <t xml:space="preserve">Gingee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Sembulichampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akkaraikodiveri B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alathur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alingiam(Gobi) B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alukuli B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammankoil B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammapettai S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjanur(Vemandampalayam) B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthiyur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appakudal B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachalur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arakkankottai B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arasur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atavanani Hanumanpalli B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athani S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athiyur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avalpundurai S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avudayarparai B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayalur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayyampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bargur-anthiyur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basuvanapuram B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basuvapatti B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavani Cutcherry S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavani H.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavani Kudal S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahmadesam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budapadi B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennampatti B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennimalai S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikkaiah Naicker College B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinnapallam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinniampalayam(Kunathur) B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chittode S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalavaipettai S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalavoipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasappagoundanpudur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edayankattuvalsu S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elathur Chettipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elavamalai B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elavanatham B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elumathur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ennamanagalam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erangattur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode Collectorate S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode East S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode Fort S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode H.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode Market S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode North S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode Railway Colony S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erode South S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganapathipalayam S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangapuram B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getticheyur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gettisamudram B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gettisamudram Colony B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnanipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobichettipalayam East S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobichettipalayam H.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobichettipalayam South S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greynagar B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gudakkarai B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guruvareddiyur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guthialathur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ichipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injampalli B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irugalur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jambai S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadappanalur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadathur S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadayampatti B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadirampatti B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadukkampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kagam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaikolapalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalbhavi B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliappampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalichettipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalingarayanpalayam Pudur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalingiam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalkadambur B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kallipatti S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kambiliyampatti B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanagapuram B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanakkampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandappagoundenvalasu B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandasamipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandikattuvalasu B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanjikovil S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kannadipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karattadipalayam S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karattupalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karukkampalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karumandisellipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karungalpalayam S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasbapettai B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasipalayam B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasipalayam S.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasthurbagarm B.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasthuripalayam B.O</t>
   </si>
 </sst>
 </file>
@@ -129,13 +450,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,13 +484,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -192,19 +521,1588 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>604202</v>
-      </c>
-    </row>
+      <c r="D3" s="3" t="n">
+        <v>638502</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>638454</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>638455</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>638457</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>638453</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>638109</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>638311</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>638752</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>638462</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>638151</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>638315</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>638101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>638506</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>638454</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>638101</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>638502</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>638103</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>638115</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>638151</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>638453</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>638151</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>638455</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>638503</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>638051</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>638301</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>638301</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>638301</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>638315</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>638311</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>638504</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>638051</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>638004</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>638311</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>638103</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>638102</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>638327</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>638751</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>638503</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>638009</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>638458</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>638316</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>638101</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>638104</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>638505</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>638011</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>638001</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>638001</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>638001</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>638001</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>638001</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>638002</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>638001</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>638153</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>638102</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>638110</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>638112</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>638452</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>638452</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>638476</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>638056</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>638454</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>638504</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>638503</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>638151</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>638058</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>638104</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>638462</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>638312</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>638311</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>638466</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>638312</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>638107</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>638476</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>638109</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>638056</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>638314</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>638110</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>638455</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>638301</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>638453</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>638503</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>638505</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>638056</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>638112</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>638505</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>638051</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>638109</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>638115</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>638116</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>638314</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>638503</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>638453</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>638457</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>638109</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>638052</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>638003</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>638115</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>638009</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>638454</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>638101</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>638751</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>638502</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>638454</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>638501</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>638455</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>638457</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>638453</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
